--- a/biology/Botanique/Eucalyptus_miniata/Eucalyptus_miniata.xlsx
+++ b/biology/Botanique/Eucalyptus_miniata/Eucalyptus_miniata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'eucalyptus miniata (Eucalyptus à chair laineuse ou woollybut) est une espèce d'eucalyptus, originaire du grand nord de l'Australie que l'on trouve à partir du cap York, dans le nord du Queensland, dans tout le Territoire du Nord ainsi que dans la région du Kimberley au nord de l'Australie-Occidentale. C'est un arbre de taille moyenne qui peut atteindre 15 à 25 m de hauteur. L'écorce est douce et fissurée, de couleur grise à rouge. Les jeunes feuilles sont d'un brun-verdâtre, longues de 3 à 6 cm sur 2 à 3 cm de large et de forme elliptique, tandis que les feuilles adultes font 7,5 à 15 cm de long sur 2,5 à 5 cm, lancéolées ou falciformes et de couleur vert clair. La floraison a lieu de mai à septembre et les fleurs, orange ou rouges, font 3,5 cm de diamètre.
 Il est utilisé pour la fabrication des didgeridoos.
